--- a/data/hotels_by_city/Houston/Houston_shard_168.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_168.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55667-d642434-Reviews-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Days-Inn-Suites-By-Wyndham-Conroe-North.h4758599.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1445 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r563731263-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>642434</t>
+  </si>
+  <si>
+    <t>563731263</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Days inn</t>
+  </si>
+  <si>
+    <t>I was very happy with the speedy check in. The parking is a little tight but the front staff was great with all the extras needed.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesConroe, Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>I was very happy with the speedy check in. The parking is a little tight but the front staff was great with all the extras needed.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r548291615-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>548291615</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Nice building but not out to help you</t>
+  </si>
+  <si>
+    <t>Booked a room for a week, Third night in front deck allows someone to do laundry at midnight. Tennis shoes in a drier sound like bowling balls. Went to front desk they say nothing they can do. Checked out the next day do to lack of management concern. Then they charged me an extra $20.00 per day for not staying the week. Went to LaQuinta across the road and stayed 2 1/2 weeks. Hot breakfast was a joke, folded egg with cheese in the fridge then microwave. Thanks anyhow!  Did I say McDonalds next door has a much better breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesConroe, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Booked a room for a week, Third night in front deck allows someone to do laundry at midnight. Tennis shoes in a drier sound like bowling balls. Went to front desk they say nothing they can do. Checked out the next day do to lack of management concern. Then they charged me an extra $20.00 per day for not staying the week. Went to LaQuinta across the road and stayed 2 1/2 weeks. Hot breakfast was a joke, folded egg with cheese in the fridge then microwave. Thanks anyhow!  Did I say McDonalds next door has a much better breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r543822246-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>543822246</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesConroe, Webmaster at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r532439452-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>532439452</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesConroe, Webmaster at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r532376990-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>532376990</t>
+  </si>
+  <si>
+    <t>Fantastic value. Very nice property and staff.</t>
+  </si>
+  <si>
+    <t>The staff was super friendly on the phone prior to my stay, during check-in &amp; check-out, and any time I asked a question. They demonstrated that they truly cared about my experience. I booked 4 rooms for family members to attend a wedding in Conroe. I arrived first and the staff the prepared the remaining rooms' keys in advance so their check-in process was quick. The free breakfast was better than average. There were cheese omelets in the refrig that could be heated in the microwave + hot bacon, sausage and biscuits. The only thing lacking was cream gravy. (Yes, I'm from Texas.) The price was fantastic for the quality of the property.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was super friendly on the phone prior to my stay, during check-in &amp; check-out, and any time I asked a question. They demonstrated that they truly cared about my experience. I booked 4 rooms for family members to attend a wedding in Conroe. I arrived first and the staff the prepared the remaining rooms' keys in advance so their check-in process was quick. The free breakfast was better than average. There were cheese omelets in the refrig that could be heated in the microwave + hot bacon, sausage and biscuits. The only thing lacking was cream gravy. (Yes, I'm from Texas.) The price was fantastic for the quality of the property.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r528790987-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>528790987</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesConroe, Webmaster at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r506909247-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>506909247</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Bathroom plug</t>
+  </si>
+  <si>
+    <t>This was the 2nd time we have stayed at this motel.  Everything is always clean and the service is good.  The only complaint was the plug in the bathroom.  If you plug anything in, you had to reset the plug.  It also was loose in the wall.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Days I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>This was the 2nd time we have stayed at this motel.  Everything is always clean and the service is good.  The only complaint was the plug in the bathroom.  If you plug anything in, you had to reset the plug.  It also was loose in the wall.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r504514441-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>504514441</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Smells like The Middle East</t>
+  </si>
+  <si>
+    <t>The smell when you walk in the front or back dooor will knock you down. The middle eastern smell of body odor kerosene and curri will make your eyes burn.  I should have walked back out and went to Laquinta Inn next door. Staff was rude and the breakfast ....just go to McDonald's next door. Horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>The smell when you walk in the front or back dooor will knock you down. The middle eastern smell of body odor kerosene and curri will make your eyes burn.  I should have walked back out and went to Laquinta Inn next door. Staff was rude and the breakfast ....just go to McDonald's next door. Horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r497768100-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>497768100</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r488836365-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>488836365</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>its doubtful I will stay here again</t>
+  </si>
+  <si>
+    <t>I was not expecting four star accommodations, but I was expecting more than we gotI don't like long winded reviews so here are the bullet points:The hotel desk staff could use more training on guest interaction.   The room was hot and musty smelling.   Two days with the AC running didn't helpThe carpet was in need of cleaning.   It felt greasy when walking on it with bare feet. The shower head had a pink discoloration on it.  It certainly did not give me a confident feeling on its cleanliness. The breakfast was fair at best. Our plans changed during the stay and we wanted to check out at 3pm.   I was tod by the desk clerk I could check out, but would be charged for the room anyway.  "Our check out time is 11 am.   It stated pls that in the room and on the wall." I decided that since I was going to get charged anyway, we would keep our original plans and stay, but we won't be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I was not expecting four star accommodations, but I was expecting more than we gotI don't like long winded reviews so here are the bullet points:The hotel desk staff could use more training on guest interaction.   The room was hot and musty smelling.   Two days with the AC running didn't helpThe carpet was in need of cleaning.   It felt greasy when walking on it with bare feet. The shower head had a pink discoloration on it.  It certainly did not give me a confident feeling on its cleanliness. The breakfast was fair at best. Our plans changed during the stay and we wanted to check out at 3pm.   I was tod by the desk clerk I could check out, but would be charged for the room anyway.  "Our check out time is 11 am.   It stated pls that in the room and on the wall." I decided that since I was going to get charged anyway, we would keep our original plans and stay, but we won't be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r483474418-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>483474418</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Great Inexpensive Hotel</t>
+  </si>
+  <si>
+    <t>This is an easy access hotel off of I-45. The service and rooms are great. It was recently remodeled and changed to a Days Inn, and is a definite improvement. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an easy access hotel off of I-45. The service and rooms are great. It was recently remodeled and changed to a Days Inn, and is a definite improvement. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r481436044-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>481436044</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r475514579-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>475514579</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Days I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r474674858-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>474674858</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r472678678-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>472678678</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r470364982-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>470364982</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>Very comfortable and clean. Breakfast was substantial and satisfying. Stay here whenever in Conroe.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r469865388-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>469865388</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r469499446-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>469499446</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Ok Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel seemed very safe and I had no problem being there alone as a women.  The lady at check in was very nice and engaging.  The room was clean, large, and nice looking.  Everything about my stay was great except the bed was hard and uncomfortable to sleep in, you could hear when any room door close to me opened and closed during the night, and the breakfast was poor at best.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r460132093-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>460132093</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r456226974-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>456226974</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently on business, and stayed at this hotel. I usually make it a point to stay at a Marriott or Hilton, but I have nothing but a good experience here. The hotel is located on 45, clean, and very well kept. The area is quiet, and the rooms were very clean. The desk staff (Samantha and Omar) are pleasant and very accommodating. I travel frequently and I will definitely use this hotel again. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r451082959-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>451082959</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Best Outcome for a Bad Situation</t>
+  </si>
+  <si>
+    <t>On Saturday, my water lines burst because of the cold. I couldn't get a plumber in until Tuesday, so I needed a safe haven. This motel is about 5 miles from my house, so going convenient and a member of the Wyndham family made it the proper choice. I wandered in late at night (10:30pm) and found myself in a comfortable, cozy room, a plush King sized bed with 5 pillows (I'm a pillow hog, so sue me), a big TV, and a hot shower with soft, fat guy sized towels. My head hit the pillow, and I was O-U-T, waking in time to hit the breakfast spread. Waffles, cheese omelets, bacon, sausage patties, coffee almost as strong as I like it, and all the other goodies a good breakfast needs. The staff was friendly, helpful, responsive and dedicated to seeing the needs of their guests met. So, 3 relaxing nights and 3 tasty breakfasts later, and I was able to go home and watch my busted water service restored, and now all is as it should be. What could have been a terrible situation was eased by a motel stay that made up for the troubles. If it hadn't been for a minor disaster, I would have never known how great this particular motel was. Although the chances of me needing to stay here are slim -- unless I want a tasty free breakfast, lol -- I will HIGHLY...On Saturday, my water lines burst because of the cold. I couldn't get a plumber in until Tuesday, so I needed a safe haven. This motel is about 5 miles from my house, so going convenient and a member of the Wyndham family made it the proper choice. I wandered in late at night (10:30pm) and found myself in a comfortable, cozy room, a plush King sized bed with 5 pillows (I'm a pillow hog, so sue me), a big TV, and a hot shower with soft, fat guy sized towels. My head hit the pillow, and I was O-U-T, waking in time to hit the breakfast spread. Waffles, cheese omelets, bacon, sausage patties, coffee almost as strong as I like it, and all the other goodies a good breakfast needs. The staff was friendly, helpful, responsive and dedicated to seeing the needs of their guests met. So, 3 relaxing nights and 3 tasty breakfasts later, and I was able to go home and watch my busted water service restored, and now all is as it should be. What could have been a terrible situation was eased by a motel stay that made up for the troubles. If it hadn't been for a minor disaster, I would have never known how great this particular motel was. Although the chances of me needing to stay here are slim -- unless I want a tasty free breakfast, lol -- I will HIGHLY RECOMMEND this to anybody who needs a great place to stay. They really do rate the 5 stars, if not more!MoreShow less</t>
+  </si>
+  <si>
+    <t>On Saturday, my water lines burst because of the cold. I couldn't get a plumber in until Tuesday, so I needed a safe haven. This motel is about 5 miles from my house, so going convenient and a member of the Wyndham family made it the proper choice. I wandered in late at night (10:30pm) and found myself in a comfortable, cozy room, a plush King sized bed with 5 pillows (I'm a pillow hog, so sue me), a big TV, and a hot shower with soft, fat guy sized towels. My head hit the pillow, and I was O-U-T, waking in time to hit the breakfast spread. Waffles, cheese omelets, bacon, sausage patties, coffee almost as strong as I like it, and all the other goodies a good breakfast needs. The staff was friendly, helpful, responsive and dedicated to seeing the needs of their guests met. So, 3 relaxing nights and 3 tasty breakfasts later, and I was able to go home and watch my busted water service restored, and now all is as it should be. What could have been a terrible situation was eased by a motel stay that made up for the troubles. If it hadn't been for a minor disaster, I would have never known how great this particular motel was. Although the chances of me needing to stay here are slim -- unless I want a tasty free breakfast, lol -- I will HIGHLY...On Saturday, my water lines burst because of the cold. I couldn't get a plumber in until Tuesday, so I needed a safe haven. This motel is about 5 miles from my house, so going convenient and a member of the Wyndham family made it the proper choice. I wandered in late at night (10:30pm) and found myself in a comfortable, cozy room, a plush King sized bed with 5 pillows (I'm a pillow hog, so sue me), a big TV, and a hot shower with soft, fat guy sized towels. My head hit the pillow, and I was O-U-T, waking in time to hit the breakfast spread. Waffles, cheese omelets, bacon, sausage patties, coffee almost as strong as I like it, and all the other goodies a good breakfast needs. The staff was friendly, helpful, responsive and dedicated to seeing the needs of their guests met. So, 3 relaxing nights and 3 tasty breakfasts later, and I was able to go home and watch my busted water service restored, and now all is as it should be. What could have been a terrible situation was eased by a motel stay that made up for the troubles. If it hadn't been for a minor disaster, I would have never known how great this particular motel was. Although the chances of me needing to stay here are slim -- unless I want a tasty free breakfast, lol -- I will HIGHLY RECOMMEND this to anybody who needs a great place to stay. They really do rate the 5 stars, if not more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r439314493-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>439314493</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was in town for a Bass fishing tournament on nearby Lake Conroe. Staff was great. Room was nice. Breakfast was great. There were outside electrical receptacles for charging boat batteries. Very good stay. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r433274001-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>433274001</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>Have stayed here many times while in the area. Good clean rooms with microwave and refrigerator,but a little high priced.  Breakfast was OK....standard hotel fare with fresh pastries, breads &amp; waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Days I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Have stayed here many times while in the area. Good clean rooms with microwave and refrigerator,but a little high priced.  Breakfast was OK....standard hotel fare with fresh pastries, breads &amp; waffles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r431591457-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>431591457</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r431358153-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>431358153</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>Great Breakfast, nice lobby w/TV; clean rooms; ample parking; workout room. A nice place to stay, good location next to restaurants and Interstate Highway. I would definitely stay here on my next visit to Conroe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Breakfast, nice lobby w/TV; clean rooms; ample parking; workout room. A nice place to stay, good location next to restaurants and Interstate Highway. I would definitely stay here on my next visit to Conroe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r431292437-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>431292437</t>
+  </si>
+  <si>
+    <t>Good hotel for the value.</t>
+  </si>
+  <si>
+    <t>The hotel is good for the price.  The con's are that the breakfast area is small with few chairs.  The pro's are the room was good and comfortable; there is an outside gazebo for outdoor dining and snacking; a convenience store is next door with a good selection of snacks, milk, and drinks.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is good for the price.  The con's are that the breakfast area is small with few chairs.  The pro's are the room was good and comfortable; there is an outside gazebo for outdoor dining and snacking; a convenience store is next door with a good selection of snacks, milk, and drinks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r428447694-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>428447694</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Great staff...mediocre hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for a softball tournament in Conroe.  The hotel itself was ok, just ok.  Nothing extraordinary about it.  I would have given it 4 stars had it had a pool, or an elevator.  The front desk lady on the day of check in was extraordinary.  She went out of her way to make our stay great and her interactions with the girls from our team were super sweet.  Wish i would have got her name.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a softball tournament in Conroe.  The hotel itself was ok, just ok.  Nothing extraordinary about it.  I would have given it 4 stars had it had a pool, or an elevator.  The front desk lady on the day of check in was extraordinary.  She went out of her way to make our stay great and her interactions with the girls from our team were super sweet.  Wish i would have got her name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r393642087-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>393642087</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Not Known Or Informed No Elevator For 2nd Floor!!!Was Very...</t>
+  </si>
+  <si>
+    <t>Not Known Or Informed No Elevator For 2nd Floor!!!Was Very Happy When Front Desk Swapped Us Rooms For Last Downstairs Double Bed Room!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Days I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Not Known Or Informed No Elevator For 2nd Floor!!!Was Very Happy When Front Desk Swapped Us Rooms For Last Downstairs Double Bed Room!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r384124085-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>384124085</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Really impressed!</t>
+  </si>
+  <si>
+    <t>I'm a diamond rewards member. I don't hand out 5/stars often. This hotel with Tax was right about $100.00. Worth every cent. 100% smoke free.....rooms were great...beds were comfortable... Water pressure great...very clean rooms and bathrooms. I would rate this hotel in the top 1% of mid level hotel. Breakfast was great! Front desk accommodating.... Plenty of room for big trucks....very nice. I will stay again......Sonny the GM was great as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a diamond rewards member. I don't hand out 5/stars often. This hotel with Tax was right about $100.00. Worth every cent. 100% smoke free.....rooms were great...beds were comfortable... Water pressure great...very clean rooms and bathrooms. I would rate this hotel in the top 1% of mid level hotel. Breakfast was great! Front desk accommodating.... Plenty of room for big trucks....very nice. I will stay again......Sonny the GM was great as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r378630432-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>378630432</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>We had very bad weather in Conroe and I was without power...</t>
+  </si>
+  <si>
+    <t>We had very bad weather in Conroe and I was without power at my home. I called and was able to get a room. Some hotels in town were only taking walk ins. This hotel was very helpful when booking and when I extendied my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We had very bad weather in Conroe and I was without power at my home. I called and was able to get a room. Some hotels in town were only taking walk ins. This hotel was very helpful when booking and when I extendied my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r363678337-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>363678337</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised with the cleanliness of the hotel.  The person at the desk was somewhat friendly, but it was after 10:00 at night when we checked in.  The room was great, and the breakfast wasn't bad.  Fruit was a little old, and the biscuits were rock hard.  The rest of the food was good though.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised with the cleanliness of the hotel.  The person at the desk was somewhat friendly, but it was after 10:00 at night when we checked in.  The room was great, and the breakfast wasn't bad.  Fruit was a little old, and the biscuits were rock hard.  The rest of the food was good though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r362276949-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>362276949</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r349981516-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>349981516</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>The rooms were very comfortable, and the staff was wonderful. We have stayed at this hotel several times and each time is a wonderful experience.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r336314527-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>336314527</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Satisfactory Stay</t>
+  </si>
+  <si>
+    <t>The check-in and check-out process were friendly and efficient. The room was spacious and the bathroom was good.The king-size bed was lumpy, and I felt that I was leaning downhill all night. Road noise is noticeable but not annoying. The relevision remote did not work, though the television did when you operated it at the console. The hot water was warm, not hot the night we showered. However, the water was hot in the morning. It was a satisfactory stay.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r333135556-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>333135556</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Conroe Stay</t>
+  </si>
+  <si>
+    <t>Hotel was in need of a refresh and updating. The room smelled fresh but did not look fresh and ready for guestsMoreShow less</t>
+  </si>
+  <si>
+    <t>Days I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was in need of a refresh and updating. The room smelled fresh but did not look fresh and ready for guestsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r327699539-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>327699539</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Nice Place to stay!!</t>
+  </si>
+  <si>
+    <t>Stayed there for a two night visit. The check in and check out was very timely. The staff was very helpful and friendly. Looked like the room had recently been updated. The one and only issue i had was that there was no electrical plug in for my computer near the computer desk. The hotel was located near several eating places and shopping areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Stayed there for a two night visit. The check in and check out was very timely. The staff was very helpful and friendly. Looked like the room had recently been updated. The one and only issue i had was that there was no electrical plug in for my computer near the computer desk. The hotel was located near several eating places and shopping areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r326093996-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>326093996</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Texas Ren Fair</t>
+  </si>
+  <si>
+    <t>The rooms had good decor, very clean and comfortable.  The beds were a little too soft for my families preference - but we all had a good nights rest.  The staff was was very professional, courteous and knowledgeable about the local area for restaurants.  The Waffle House was within walking distance to the hotel - my family LOVES Waffle House so we did not use the breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms had good decor, very clean and comfortable.  The beds were a little too soft for my families preference - but we all had a good nights rest.  The staff was was very professional, courteous and knowledgeable about the local area for restaurants.  The Waffle House was within walking distance to the hotel - my family LOVES Waffle House so we did not use the breakfast area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r325524831-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>325524831</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Help us out of a Jam</t>
+  </si>
+  <si>
+    <t>We were in Houston a few weeks ago with my daughters softball team (13 families) when the weather was really bad. The hotel we were originally staying out lost power all day and we had to move to a new hotel. We found the Days In.  They were great!  Super accommodating and very helpful.  Our girls were tired and miserable with all the  rain and they got us all checked in with no hassle and great customer service. The rooms were clean and comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We were in Houston a few weeks ago with my daughters softball team (13 families) when the weather was really bad. The hotel we were originally staying out lost power all day and we had to move to a new hotel. We found the Days In.  They were great!  Super accommodating and very helpful.  Our girls were tired and miserable with all the  rain and they got us all checked in with no hassle and great customer service. The rooms were clean and comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r324649136-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>324649136</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Day's Inn - Conroe</t>
+  </si>
+  <si>
+    <t>The room was nice, clean with all necessary amenities. It is always nice to have the fridge &amp; microwave. Our only concern was that the door from the parking lot didn't lock, leaving the building open to possible intruders. MoreShow less</t>
+  </si>
+  <si>
+    <t>Days I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Conroe North, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>The room was nice, clean with all necessary amenities. It is always nice to have the fridge &amp; microwave. Our only concern was that the door from the parking lot didn't lock, leaving the building open to possible intruders. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r322522301-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>322522301</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r321254011-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>321254011</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r310178145-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>310178145</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>Found this Days Inn to be more than adequate. The room looked clean, smelled clean, cold AC. Although the breakfast area is rather small the selection of food was very good. Loved the Texas shaped waffle that you make yourself so it is hot and fresh and delish. Small workout room, free internet, good location, very friendly staff. Good value, would definitely stay there again. Also good lighted parking.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r298820771-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>298820771</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r291555007-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>291555007</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r287025114-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>287025114</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>A quick overnight stay before dropping child off at gymnastics camp in New Waverly.  This location is on the very north end of Conroe and worked well for our purpose.  I was very pleased with this hotel and the price we paid.  Comfy beds and pillows, clean room and bathroom, satisfying breakfast.  Easy access on and off I-45.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r280075181-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>280075181</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r274681370-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>274681370</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Will stay again</t>
+  </si>
+  <si>
+    <t>Front desk staff friendly, courteous and efficient.  Rooms clean.  Mama Juanita's offered a 10% discount to guests and it was an AWESOME Mexican restaurant.   Perfect location to drive to spend the night before going on to Galveston to get on cruise ship.  We will stay here again. Only downside was not enough room for breakfast seating.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r272921094-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>272921094</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r267629196-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>267629196</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Manager&amp; clerk were so nice..and another guest, part of a...</t>
+  </si>
+  <si>
+    <t>Manager&amp; clerk were so nice..and another guest, part of a large military group helped fix a room dilemma</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r266102130-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>266102130</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>On our way to Austin, TX on US10.  Detoured on 105 to miss congestion and construction at Houston.  Scenic route took us to Conroe.  Arrived late but had a 1st floor room near the lobby available.  Room was clean, well furnished, and recently updated.  "Full" breakfast in the a.m. with a variety of hot and cold items all fresh and plentiful.  Staff was helpful and courteous and explained that even more upgrades were scheduled.  A good value.  Room pricing was for 2 people with an additional charge per extra person which is, I believe, standard for most hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r264288589-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>264288589</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Urine on the toilet seat</t>
+  </si>
+  <si>
+    <t>My husband and I arrived late at night with our newborn to find urine on the toilet seat and strands of hair. They switched us to a different room and I asked to speak to the manager in the morning. The manager did not seek me out, I had to ask for him. He also basically told me that I made it up, because he checked the room before we arrived. Will not return to this hotel ever!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r256252319-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>256252319</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Great Room... Okay Service</t>
+  </si>
+  <si>
+    <t>The room looked really good (we were on the 1st floor); the sheets were clean, we had no issues with the room at all. Definitely worth the money on that. My biggest issue was the service. I got a room with 2 beds (enough room for 4 ppl). When I rserved the room I said 2 ppl because I wasn't sure if our friends would be staying in our room. When I mentioned there would be 4 ppl, they charged me an extra $20 per person, per night!! When we had the room available. I was very very mad about this!!Also... they called while I was driving from Arkansas to Conroe, TX to make sure we were coming. Other guests that were staying there said they were giving reserved rooms away. I am NOT happy with the service at All!! And will probably not go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The room looked really good (we were on the 1st floor); the sheets were clean, we had no issues with the room at all. Definitely worth the money on that. My biggest issue was the service. I got a room with 2 beds (enough room for 4 ppl). When I rserved the room I said 2 ppl because I wasn't sure if our friends would be staying in our room. When I mentioned there would be 4 ppl, they charged me an extra $20 per person, per night!! When we had the room available. I was very very mad about this!!Also... they called while I was driving from Arkansas to Conroe, TX to make sure we were coming. Other guests that were staying there said they were giving reserved rooms away. I am NOT happy with the service at All!! And will probably not go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r254780324-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>254780324</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Excellent Extented Stay</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed at this hotel for quite some time. During our extended stay, we were always treated with respect and kindness. The staff was friendly and avaliable when needed. The hotel was clean and housekeeping was great. I would recommend this hotel to anyone. The owner/manager is always improving the quality of this hotel which is a plus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r253789478-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>253789478</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r246343149-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>246343149</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Excellent place at a reasonable rate</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights. I mentioned the smell every time we walked in. It was a Very, very clean, fresh smell. Looks like they have done some upgrading since the last time we were there a few years ago. One of the days we were there they were cleaning the air conditioning units in the unoccupied rooms. One of the days they were replacing the mattress covers with brand new ones. The housekeeping was friendly and did a great job cleaning our room. The front desk staff was very friendly and spoke every time they saw us. The hot breakfast was good and had a good variety. Eggs, bacon, sausage, waffles, toast, biscuits, oatmeal, cereal, milk, oj, apple juice, muffins, raisin toast, bagels, cream cheese, fruit. Big variety that should please anyone needing a quick bite before they start their day. Overall a great visit. Not my first time staying there and won't be my last. Keep up the good work and you have a repeat customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights. I mentioned the smell every time we walked in. It was a Very, very clean, fresh smell. Looks like they have done some upgrading since the last time we were there a few years ago. One of the days we were there they were cleaning the air conditioning units in the unoccupied rooms. One of the days they were replacing the mattress covers with brand new ones. The housekeeping was friendly and did a great job cleaning our room. The front desk staff was very friendly and spoke every time they saw us. The hot breakfast was good and had a good variety. Eggs, bacon, sausage, waffles, toast, biscuits, oatmeal, cereal, milk, oj, apple juice, muffins, raisin toast, bagels, cream cheese, fruit. Big variety that should please anyone needing a quick bite before they start their day. Overall a great visit. Not my first time staying there and won't be my last. Keep up the good work and you have a repeat customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r246019685-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>246019685</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r241476073-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>241476073</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>I wish it could be a great review</t>
+  </si>
+  <si>
+    <t>First, I have to say that the desk staff was outstanding. Both friendly and helpful, we had no quibbles at all in that regard. Unfortunately, the mattress could not have been more uncomfortable. It was seriously like sleeping on a rock. The upstairs neighbors were unbelievably noisy just walking across the floor. I don't mean to say that they were in any way obnoxious, but that the structure was so poor that we could hear every footstep like thunder. Not to mention that they were apparently rearranging the furniture all night long if the noise was anything to go by. We did not get a very restful night's sleep, unfortunately.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>First, I have to say that the desk staff was outstanding. Both friendly and helpful, we had no quibbles at all in that regard. Unfortunately, the mattress could not have been more uncomfortable. It was seriously like sleeping on a rock. The upstairs neighbors were unbelievably noisy just walking across the floor. I don't mean to say that they were in any way obnoxious, but that the structure was so poor that we could hear every footstep like thunder. Not to mention that they were apparently rearranging the furniture all night long if the noise was anything to go by. We did not get a very restful night's sleep, unfortunately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r238192593-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>238192593</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r237203065-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>237203065</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is awesome. The staff is extremely helpful. Breakfast was refreshed even thought it was near over. Rooms were clean. Hotel overall is clean and the bright colors are very resort-like. The best stay for the money in the entire area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r237146135-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>237146135</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r235469315-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>235469315</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Trip to R.L. 10/17/14 - 10/18/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKIN - mclerk was friendly and curtiousROOM - was neet and cleanBREAKFAST - was fine       </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r234753586-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>234753586</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r229311798-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>229311798</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>would not return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was clean and we'll kept.  Room had a little musty smell, but was fine after running the ac.  Problem was at 2am sounded like there was a dance floor above our room. People slamming doors , maybe running into things, etc. I was finally able to fall asleep around 3 only to wake up early the next morning to the same noises. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r219331608-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>219331608</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r219117892-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>219117892</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r215895696-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>215895696</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r204890177-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>204890177</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r202770093-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>202770093</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>THE BEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We travel often.  We have never stayed at any hotel that had a more friendly or helpful staff.  We only had "little" requests but the front desk staff treated them as if they were very big  requests.  How nice. </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r202578225-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>202578225</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>It's "OK"</t>
+  </si>
+  <si>
+    <t>$15 for early check-in? Business rate or AAA is only $6 less the full price, most motels at least go off $10 for discounts without early check-in fee.
+Room was HOT and somewhat smelly when we opened the door, took a fair amount of Lysol spray and an hour to cool it down. Bed was good, semi-hard with 3 pillows. Smallish flat screen tv and had a bad picture, real fuzzy and grainy. Room appeared cleaner than some Days Inns. Had a small fridge and microwave, coffee pot with cheap coffee. (We travel with our own coffee and brewer when working out of town). We sleep days, work nights and the motel was quite, didn't hear much hwy traffic.
+If you want the breakfast, be early, or you will be in line, small are for folks to maneuver and only saw 2 1/2 tables. Had a egg/sausage type wrap, small pre-made sausage biscuits, only 2 kinds of cereal, raisin brand and frosted flakes AND on of my pet peeves, one gallon milk containers every one gets to touch the lid! Just hope they wash their hands 1st!! Didnt see fruit, but small per-packaged pastries.
+Overall feel of the property seemed safe and clean. Likely better deals in town if you have time to research (Avoid the super 8 if possible, or at least read all the reviews).
+Parking for trailers on side street, no elevators, if that is an issue...$15 for early check-in? Business rate or AAA is only $6 less the full price, most motels at least go off $10 for discounts without early check-in fee.Room was HOT and somewhat smelly when we opened the door, took a fair amount of Lysol spray and an hour to cool it down. Bed was good, semi-hard with 3 pillows. Smallish flat screen tv and had a bad picture, real fuzzy and grainy. Room appeared cleaner than some Days Inns. Had a small fridge and microwave, coffee pot with cheap coffee. (We travel with our own coffee and brewer when working out of town). We sleep days, work nights and the motel was quite, didn't hear much hwy traffic.If you want the breakfast, be early, or you will be in line, small are for folks to maneuver and only saw 2 1/2 tables. Had a egg/sausage type wrap, small pre-made sausage biscuits, only 2 kinds of cereal, raisin brand and frosted flakes AND on of my pet peeves, one gallon milk containers every one gets to touch the lid! Just hope they wash their hands 1st!! Didnt see fruit, but small per-packaged pastries.Overall feel of the property seemed safe and clean. Likely better deals in town if you have time to research (Avoid the super 8 if possible, or at least read all the reviews).Parking for trailers on side street, no elevators, if that is an issue for some. Internet WIFI was adequate and no issues.I don't think it was worth $90+ after tax and an "early check-in fee" ( Patel property so),so I will look around when back in Conroe.  Right next door to a decent looking La Quinta, but we didnt check that one, but will next time around.MoreShow less</t>
+  </si>
+  <si>
+    <t>$15 for early check-in? Business rate or AAA is only $6 less the full price, most motels at least go off $10 for discounts without early check-in fee.
+Room was HOT and somewhat smelly when we opened the door, took a fair amount of Lysol spray and an hour to cool it down. Bed was good, semi-hard with 3 pillows. Smallish flat screen tv and had a bad picture, real fuzzy and grainy. Room appeared cleaner than some Days Inns. Had a small fridge and microwave, coffee pot with cheap coffee. (We travel with our own coffee and brewer when working out of town). We sleep days, work nights and the motel was quite, didn't hear much hwy traffic.
+If you want the breakfast, be early, or you will be in line, small are for folks to maneuver and only saw 2 1/2 tables. Had a egg/sausage type wrap, small pre-made sausage biscuits, only 2 kinds of cereal, raisin brand and frosted flakes AND on of my pet peeves, one gallon milk containers every one gets to touch the lid! Just hope they wash their hands 1st!! Didnt see fruit, but small per-packaged pastries.
+Overall feel of the property seemed safe and clean. Likely better deals in town if you have time to research (Avoid the super 8 if possible, or at least read all the reviews).
+Parking for trailers on side street, no elevators, if that is an issue...$15 for early check-in? Business rate or AAA is only $6 less the full price, most motels at least go off $10 for discounts without early check-in fee.Room was HOT and somewhat smelly when we opened the door, took a fair amount of Lysol spray and an hour to cool it down. Bed was good, semi-hard with 3 pillows. Smallish flat screen tv and had a bad picture, real fuzzy and grainy. Room appeared cleaner than some Days Inns. Had a small fridge and microwave, coffee pot with cheap coffee. (We travel with our own coffee and brewer when working out of town). We sleep days, work nights and the motel was quite, didn't hear much hwy traffic.If you want the breakfast, be early, or you will be in line, small are for folks to maneuver and only saw 2 1/2 tables. Had a egg/sausage type wrap, small pre-made sausage biscuits, only 2 kinds of cereal, raisin brand and frosted flakes AND on of my pet peeves, one gallon milk containers every one gets to touch the lid! Just hope they wash their hands 1st!! Didnt see fruit, but small per-packaged pastries.Overall feel of the property seemed safe and clean. Likely better deals in town if you have time to research (Avoid the super 8 if possible, or at least read all the reviews).Parking for trailers on side street, no elevators, if that is an issue for some. Internet WIFI was adequate and no issues.I don't think it was worth $90+ after tax and an "early check-in fee" ( Patel property so),so I will look around when back in Conroe.  Right next door to a decent looking La Quinta, but we didnt check that one, but will next time around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r192576763-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>192576763</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r191650450-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>191650450</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r191637353-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>191637353</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r186689204-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>186689204</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r178472808-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>178472808</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r177404086-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>177404086</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r166460711-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>166460711</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Condescending and Derogatory Managment</t>
+  </si>
+  <si>
+    <t>The hotel i first booked for this night was oversold, and I had to go across the highway to this place.  I have been traveling for about four months, and in the next day, I decided to go a head a book a week here.  Since i had been gone, my CC expiration date and they had sent me a new card, which i had in an envelope SOMEWHERE in my luggage.  I was carrying a  lot of things for work, and went to go look for it.  When i came down the second time to let the manager know that i was still looking for it, he said you "Have ten minutes of I call the Police".   I explained to him that i was looking for the card, but should just call the card company and transfer the money to my other card.. and he said "You have ten minutes"  I cant even get through the voice mail of a credit card company in ten minutes.  So i went up stairs, packed up ALL of my stuff, brought it down to the lobby and then started to call the Credit card company soi could then check back in.  When i finally got it fixed, he then said.. "Oh im sorry, we have no more rooms for tonight. I was so disgusted.  He is a small man.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>The hotel i first booked for this night was oversold, and I had to go across the highway to this place.  I have been traveling for about four months, and in the next day, I decided to go a head a book a week here.  Since i had been gone, my CC expiration date and they had sent me a new card, which i had in an envelope SOMEWHERE in my luggage.  I was carrying a  lot of things for work, and went to go look for it.  When i came down the second time to let the manager know that i was still looking for it, he said you "Have ten minutes of I call the Police".   I explained to him that i was looking for the card, but should just call the card company and transfer the money to my other card.. and he said "You have ten minutes"  I cant even get through the voice mail of a credit card company in ten minutes.  So i went up stairs, packed up ALL of my stuff, brought it down to the lobby and then started to call the Credit card company soi could then check back in.  When i finally got it fixed, he then said.. "Oh im sorry, we have no more rooms for tonight. I was so disgusted.  He is a small man.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r156300798-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>156300798</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r155348318-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>155348318</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>We are in Katy, TX for a charity horse show. Location was great. Plenty of shopping and eating places close to motel. Motel had plenty to eat for breakfast. Rooms were very clean with large screen TV. I definitely would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r148230420-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>148230420</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>The best Days Inn I've stayed at, so far.</t>
+  </si>
+  <si>
+    <t>There's road construction in the immediate area, so upon arrival it was tricky finding the drive. After that, it was quite easy. Very clean facility! It's only 4 years old and has already been renovated once. Unlike other older Days Inns, this one has a fitness room and a business center. The staff was very cordial, as well as professional. The free breakfast was nothing special, but several nice restaurants are close bye. The location was only a few miles from our son, who we came to visit. All in all, this is the best Days Inn I've ever visited, and I'd be happy to stay there again.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r147815873-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>147815873</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I loved how clean the room was. When I asked for "Non-Smoking," it was truly a non-smoking room (no lingering "ash tray" smell...fresh air!) The room was very nice, fully equipped with a fridge, microwave, ironing board, internet...pretty much everything. It was VERY quiet, the bed was VERY comfortable, and the breakfast buffet is the best I've ever seen! They treated me like family... I highly recommend staying at Days Inn &amp; Suites at this location. (I travel from Livingston to Spring to work every day...so this is a great "Home Away From Home.." for me!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r146372069-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>146372069</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r145333183-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>145333183</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r143238372-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>143238372</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r142901320-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>142901320</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r131514675-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>131514675</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had been searching for a reasonable and clean place to stay. When I came across this hotel and they honored my discount, I jumped on it. One of the managers by the name of Sonny was very pleasant and great customer service skill. Even though they were in the process of remodeling it was all good. Clean and neat rooms. The only default is there's no pool. I would definitely stay again. Reasonable prices. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r116188356-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>116188356</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>everything is always good when we stay here!! just wish they had a pool.</t>
+  </si>
+  <si>
+    <t>everything is always good when we stay here!! just wish they had a pool</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r101375388-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>101375388</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>Cheap &amp; Friendly</t>
+  </si>
+  <si>
+    <t>Nice hotel, the staff is really friendly and welcoming, and the rooms are clean. I didn't eat the breakfast, so no comment there.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r86790343-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>86790343</t>
+  </si>
+  <si>
+    <t>11/11/2010</t>
+  </si>
+  <si>
+    <t>Very Clean and the front desk staff was very friendly</t>
+  </si>
+  <si>
+    <t>Special deal for 49.95 , 56.45 with tax, the gentlman that checked me in was v ery friendly and helpful, and introduced us to the new manager who was having afternoon tea and cookies for the guest to meet the manager...The Beds were nice and comfrey, and the cont....breakfast had fruit and oatmeal, different danishes, and breakfast breads, milk oj and apple juice, , hot tea, hot cocoa, ego waffles, biscuits, lots of stuff.........will stay again</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r74953841-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>74953841</t>
+  </si>
+  <si>
+    <t>08/12/2010</t>
+  </si>
+  <si>
+    <t>It was Horrible, ANS they were WORNG!!! I wish I could get my money back</t>
+  </si>
+  <si>
+    <t>The hotel it self is OK...I spent 70 dollars for one night and it would have been worth if if what they said was true and nice...the room was a little warm so the a/c unit came in great..it sorta clean stains on the CARPET &amp; NO POOL for 70 bucks NOT WORTH IT TO ME, my major problem was thier continental breakfast..1st of all bagels and cookies is not a breakfast for a 4 year old 3 year old and a 2 year old I had to go to Mcdonalds and buy them eggs and sausage, Now If I knew thats what thier"continental Breakfast" was like I would have been more prepaired, I would have got a cheaper hotel and spent the rest on breakfast...SO SO MAD about this stay...as I was checking out the next morning  a really rude lady at the front desk accused me of having kids that were running around that were not even my kids, by telling me " you need to get a hold of your children" Ummm Miss sorry but they are not mine!!...she was MEAN!! I SOOOOO regret staying here but it was 9 o clock and they said they had a contintal breakfast...No it was a cold snack!! there is a la quinta across the street, please dont waste your money here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>The hotel it self is OK...I spent 70 dollars for one night and it would have been worth if if what they said was true and nice...the room was a little warm so the a/c unit came in great..it sorta clean stains on the CARPET &amp; NO POOL for 70 bucks NOT WORTH IT TO ME, my major problem was thier continental breakfast..1st of all bagels and cookies is not a breakfast for a 4 year old 3 year old and a 2 year old I had to go to Mcdonalds and buy them eggs and sausage, Now If I knew thats what thier"continental Breakfast" was like I would have been more prepaired, I would have got a cheaper hotel and spent the rest on breakfast...SO SO MAD about this stay...as I was checking out the next morning  a really rude lady at the front desk accused me of having kids that were running around that were not even my kids, by telling me " you need to get a hold of your children" Ummm Miss sorry but they are not mine!!...she was MEAN!! I SOOOOO regret staying here but it was 9 o clock and they said they had a contintal breakfast...No it was a cold snack!! there is a la quinta across the street, please dont waste your money here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d642434-r53675130-Days_Inn_Suites_by_Wyndham_Conroe_North-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>53675130</t>
+  </si>
+  <si>
+    <t>01/17/2010</t>
+  </si>
+  <si>
+    <t>Would tell friends</t>
+  </si>
+  <si>
+    <t>The maid service was up to par and the breakfest in the morning was just enough to get you through lunch. The price  was right for the room that we received, you can get a single king and there is a couch that folds out into a bed so 4 or 5 can sleep easily. I however did not like how you could hear every conversation or tv in the rooms surrounding me. Plus, I have a year old that likes to scream and I am sure that people heard, but no one complained. You can just hear everything, but its a hotel what do you expect. All and all, I would suggest to friends if they were in need of a place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>The maid service was up to par and the breakfest in the morning was just enough to get you through lunch. The price  was right for the room that we received, you can get a single king and there is a couch that folds out into a bed so 4 or 5 can sleep easily. I however did not like how you could hear every conversation or tv in the rooms surrounding me. Plus, I have a year old that likes to scream and I am sure that people heard, but no one complained. You can just hear everything, but its a hotel what do you expect. All and all, I would suggest to friends if they were in need of a place to stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1977,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2009,5927 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>182</v>
+      </c>
+      <c r="X24" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>182</v>
+      </c>
+      <c r="X25" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>182</v>
+      </c>
+      <c r="X26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>182</v>
+      </c>
+      <c r="X27" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>182</v>
+      </c>
+      <c r="X28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>211</v>
+      </c>
+      <c r="X29" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>211</v>
+      </c>
+      <c r="X30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>211</v>
+      </c>
+      <c r="X31" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>232</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>182</v>
+      </c>
+      <c r="X32" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s">
+        <v>247</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>248</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" t="s">
+        <v>253</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>254</v>
+      </c>
+      <c r="X36" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" t="s">
+        <v>131</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>254</v>
+      </c>
+      <c r="X37" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>254</v>
+      </c>
+      <c r="X38" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>254</v>
+      </c>
+      <c r="X39" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>282</v>
+      </c>
+      <c r="X40" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O41" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>296</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>300</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>302</v>
+      </c>
+      <c r="J45" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>304</v>
+      </c>
+      <c r="O45" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>311</v>
+      </c>
+      <c r="J47" t="s">
+        <v>312</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" t="s">
+        <v>318</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s">
+        <v>326</v>
+      </c>
+      <c r="L50" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>328</v>
+      </c>
+      <c r="O50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>330</v>
+      </c>
+      <c r="J51" t="s">
+        <v>331</v>
+      </c>
+      <c r="K51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L51" t="s">
+        <v>333</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>328</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>334</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>335</v>
+      </c>
+      <c r="J52" t="s">
+        <v>336</v>
+      </c>
+      <c r="K52" t="s">
+        <v>337</v>
+      </c>
+      <c r="L52" t="s">
+        <v>338</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>339</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J53" t="s">
+        <v>341</v>
+      </c>
+      <c r="K53" t="s">
+        <v>342</v>
+      </c>
+      <c r="L53" t="s">
+        <v>343</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>344</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" t="s">
+        <v>348</v>
+      </c>
+      <c r="K54" t="s">
+        <v>349</v>
+      </c>
+      <c r="L54" t="s">
+        <v>350</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>351</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>352</v>
+      </c>
+      <c r="J55" t="s">
+        <v>353</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>354</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>356</v>
+      </c>
+      <c r="J56" t="s">
+        <v>357</v>
+      </c>
+      <c r="K56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L56" t="s">
+        <v>359</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>360</v>
+      </c>
+      <c r="O56" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>360</v>
+      </c>
+      <c r="O57" t="s">
+        <v>77</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>365</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>366</v>
+      </c>
+      <c r="J58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L58" t="s">
+        <v>369</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>370</v>
+      </c>
+      <c r="O58" t="s">
+        <v>127</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>373</v>
+      </c>
+      <c r="J59" t="s">
+        <v>374</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>370</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>375</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>376</v>
+      </c>
+      <c r="J60" t="s">
+        <v>377</v>
+      </c>
+      <c r="K60" t="s">
+        <v>378</v>
+      </c>
+      <c r="L60" t="s">
+        <v>379</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>380</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>381</v>
+      </c>
+      <c r="J61" t="s">
+        <v>377</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>382</v>
+      </c>
+      <c r="O61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>383</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>384</v>
+      </c>
+      <c r="J62" t="s">
+        <v>385</v>
+      </c>
+      <c r="K62" t="s">
+        <v>386</v>
+      </c>
+      <c r="L62" t="s">
+        <v>387</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>382</v>
+      </c>
+      <c r="O62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>389</v>
+      </c>
+      <c r="J63" t="s">
+        <v>390</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>382</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>391</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>392</v>
+      </c>
+      <c r="J64" t="s">
+        <v>393</v>
+      </c>
+      <c r="K64" t="s">
+        <v>394</v>
+      </c>
+      <c r="L64" t="s">
+        <v>395</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>396</v>
+      </c>
+      <c r="O64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>397</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>398</v>
+      </c>
+      <c r="J65" t="s">
+        <v>399</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>400</v>
+      </c>
+      <c r="O65" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>401</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>402</v>
+      </c>
+      <c r="J66" t="s">
+        <v>403</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>400</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>404</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>405</v>
+      </c>
+      <c r="J67" t="s">
+        <v>406</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>400</v>
+      </c>
+      <c r="O67" t="s">
+        <v>127</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>407</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>408</v>
+      </c>
+      <c r="J68" t="s">
+        <v>409</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>410</v>
+      </c>
+      <c r="O68" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>411</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>412</v>
+      </c>
+      <c r="J69" t="s">
+        <v>413</v>
+      </c>
+      <c r="K69" t="s">
+        <v>414</v>
+      </c>
+      <c r="L69" t="s">
+        <v>415</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>416</v>
+      </c>
+      <c r="O69" t="s">
+        <v>127</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>417</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>418</v>
+      </c>
+      <c r="J70" t="s">
+        <v>419</v>
+      </c>
+      <c r="K70" t="s">
+        <v>420</v>
+      </c>
+      <c r="L70" t="s">
+        <v>421</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>416</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>423</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>424</v>
+      </c>
+      <c r="J71" t="s">
+        <v>425</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>426</v>
+      </c>
+      <c r="O71" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>427</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>428</v>
+      </c>
+      <c r="J72" t="s">
+        <v>429</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s">
+        <v>69</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>426</v>
+      </c>
+      <c r="O72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>430</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>431</v>
+      </c>
+      <c r="J73" t="s">
+        <v>429</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>426</v>
+      </c>
+      <c r="O73" t="s">
+        <v>77</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>432</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J74" t="s">
+        <v>434</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>435</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>436</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>437</v>
+      </c>
+      <c r="J75" t="s">
+        <v>438</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>439</v>
+      </c>
+      <c r="O75" t="s">
+        <v>127</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>440</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>441</v>
+      </c>
+      <c r="J76" t="s">
+        <v>442</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>439</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>443</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>444</v>
+      </c>
+      <c r="J77" t="s">
+        <v>445</v>
+      </c>
+      <c r="K77" t="s">
+        <v>446</v>
+      </c>
+      <c r="L77" t="s">
+        <v>447</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>448</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>450</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>451</v>
+      </c>
+      <c r="J78" t="s">
+        <v>452</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>453</v>
+      </c>
+      <c r="O78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>454</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>455</v>
+      </c>
+      <c r="J79" t="s">
+        <v>456</v>
+      </c>
+      <c r="K79" t="s">
+        <v>161</v>
+      </c>
+      <c r="L79" t="s">
+        <v>457</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>453</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>458</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>459</v>
+      </c>
+      <c r="J80" t="s">
+        <v>460</v>
+      </c>
+      <c r="K80" t="s">
+        <v>461</v>
+      </c>
+      <c r="L80" t="s">
+        <v>462</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>463</v>
+      </c>
+      <c r="O80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>464</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>465</v>
+      </c>
+      <c r="J81" t="s">
+        <v>466</v>
+      </c>
+      <c r="K81" t="s">
+        <v>467</v>
+      </c>
+      <c r="L81" t="s">
+        <v>468</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>463</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>469</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>470</v>
+      </c>
+      <c r="J82" t="s">
+        <v>471</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s">
+        <v>69</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>472</v>
+      </c>
+      <c r="O82" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>473</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>474</v>
+      </c>
+      <c r="J83" t="s">
+        <v>475</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>472</v>
+      </c>
+      <c r="O83" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>476</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>477</v>
+      </c>
+      <c r="J84" t="s">
+        <v>478</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>479</v>
+      </c>
+      <c r="O84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>480</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>481</v>
+      </c>
+      <c r="J85" t="s">
+        <v>482</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>479</v>
+      </c>
+      <c r="O85" t="s">
+        <v>127</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>483</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>484</v>
+      </c>
+      <c r="J86" t="s">
+        <v>485</v>
+      </c>
+      <c r="K86" t="s">
+        <v>486</v>
+      </c>
+      <c r="L86" t="s">
+        <v>487</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>488</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>489</v>
+      </c>
+      <c r="J87" t="s">
+        <v>490</v>
+      </c>
+      <c r="K87" t="s">
+        <v>491</v>
+      </c>
+      <c r="L87" t="s">
+        <v>492</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>493</v>
+      </c>
+      <c r="O87" t="s">
+        <v>77</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>494</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>495</v>
+      </c>
+      <c r="J88" t="s">
+        <v>496</v>
+      </c>
+      <c r="K88" t="s">
+        <v>497</v>
+      </c>
+      <c r="L88" t="s">
+        <v>498</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>499</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>500</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>501</v>
+      </c>
+      <c r="J89" t="s">
+        <v>502</v>
+      </c>
+      <c r="K89" t="s">
+        <v>503</v>
+      </c>
+      <c r="L89" t="s">
+        <v>504</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>505</v>
+      </c>
+      <c r="O89" t="s">
+        <v>127</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>506</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>507</v>
+      </c>
+      <c r="J90" t="s">
+        <v>508</v>
+      </c>
+      <c r="K90" t="s">
+        <v>509</v>
+      </c>
+      <c r="L90" t="s">
+        <v>510</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>511</v>
+      </c>
+      <c r="O90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60602</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>513</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>514</v>
+      </c>
+      <c r="J91" t="s">
+        <v>515</v>
+      </c>
+      <c r="K91" t="s">
+        <v>516</v>
+      </c>
+      <c r="L91" t="s">
+        <v>517</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>518</v>
+      </c>
+      <c r="O91" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
